--- a/Automated_Court_Notice_Checker/county_list.xlsx
+++ b/Automated_Court_Notice_Checker/county_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelbenliyan/Documents/Coding/Personal/court_notification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF87554-7152-294A-884C-F6EE101FB9D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE10A88D-500B-AC4F-B846-8526CF182637}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{FDB128E7-B94B-194E-B626-D6532E028DD4}"/>
+    <workbookView xWindow="5520" yWindow="6180" windowWidth="28040" windowHeight="17440" xr2:uid="{FDB128E7-B94B-194E-B626-D6532E028DD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="76">
   <si>
     <t>http://www.alameda.courts.ca.gov/Default.aspx</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Alpine</t>
   </si>
   <si>
-    <t>1/5/21</t>
-  </si>
-  <si>
     <t>https://www.alpine.courts.ca.gov/views/news</t>
   </si>
   <si>
@@ -75,22 +72,187 @@
     <t>Colusa</t>
   </si>
   <si>
-    <t>April 01, 2021</t>
-  </si>
-  <si>
-    <t>October 01, 2021</t>
-  </si>
-  <si>
-    <t>November 9, 2021</t>
-  </si>
-  <si>
     <t>Contra Costa</t>
   </si>
   <si>
     <t>https://www.contracosta.ca.gov/CivicAlerts.aspx?CID=37</t>
   </si>
   <si>
-    <t>January 9, 2022</t>
+    <t>Del Norte</t>
+  </si>
+  <si>
+    <t>El Dorado</t>
+  </si>
+  <si>
+    <t>https://www.eldorado.courts.ca.gov/general-information/news-events</t>
+  </si>
+  <si>
+    <t>Fresno</t>
+  </si>
+  <si>
+    <t>https://www.fresno.courts.ca.gov/general-information/news-events</t>
+  </si>
+  <si>
+    <t>https://www.humboldt.courts.ca.gov/general-information/news-events</t>
+  </si>
+  <si>
+    <t>Humboldt</t>
+  </si>
+  <si>
+    <t>Imperial</t>
+  </si>
+  <si>
+    <t>https://www.imperial.courts.ca.gov/general-information/news-and-events</t>
+  </si>
+  <si>
+    <t>https://www.inyo.courts.ca.gov/views/news</t>
+  </si>
+  <si>
+    <t>Inyo</t>
+  </si>
+  <si>
+    <t>Kern</t>
+  </si>
+  <si>
+    <t>https://www.kern.courts.ca.gov/announcements</t>
+  </si>
+  <si>
+    <t>https://www.kings.courts.ca.gov/views/news</t>
+  </si>
+  <si>
+    <t>Kings</t>
+  </si>
+  <si>
+    <t>https://www.lake.courts.ca.gov/index.htm</t>
+  </si>
+  <si>
+    <t>Lake</t>
+  </si>
+  <si>
+    <t>Pop Format Old 2</t>
+  </si>
+  <si>
+    <t>https://www.lassencourt.ca.gov/</t>
+  </si>
+  <si>
+    <t>Lassen</t>
+  </si>
+  <si>
+    <t>Double Check Data Format</t>
+  </si>
+  <si>
+    <t>https://www.lacourt.org/newsmedia/notices/attorneynotice</t>
+  </si>
+  <si>
+    <t>Attorney Notice</t>
+  </si>
+  <si>
+    <t>https://www.lacourt.org/newsmedia/notices/publicnotices</t>
+  </si>
+  <si>
+    <t>Los Angeles 1</t>
+  </si>
+  <si>
+    <t>Los Angeles 2</t>
+  </si>
+  <si>
+    <t>Public Notice</t>
+  </si>
+  <si>
+    <t>https://www.madera.courts.ca.gov/views/news</t>
+  </si>
+  <si>
+    <t>Madera</t>
+  </si>
+  <si>
+    <t>http://www.marincourt.org/home.cgi</t>
+  </si>
+  <si>
+    <t>Marin</t>
+  </si>
+  <si>
+    <t>1/1/2022</t>
+  </si>
+  <si>
+    <t>January 1, 2022</t>
+  </si>
+  <si>
+    <t>January 01, 2022</t>
+  </si>
+  <si>
+    <t>1/1/22</t>
+  </si>
+  <si>
+    <t>1 Jan 2022</t>
+  </si>
+  <si>
+    <t>01/01/2022</t>
+  </si>
+  <si>
+    <t>https://www.mariposa.courts.ca.gov/general-information/news-and-events</t>
+  </si>
+  <si>
+    <t>Mariposa</t>
+  </si>
+  <si>
+    <t>https://www.mendocino.courts.ca.gov/general-information/court-rules-orders</t>
+  </si>
+  <si>
+    <t>Mendocino</t>
+  </si>
+  <si>
+    <t>https://www.merced.courts.ca.gov/general-information/news-events</t>
+  </si>
+  <si>
+    <t>Merced</t>
+  </si>
+  <si>
+    <t>https://www.modoc.courts.ca.gov/general-information/news-events</t>
+  </si>
+  <si>
+    <t>Modoc</t>
+  </si>
+  <si>
+    <t>https://www.mono.courts.ca.gov/general-information/news-and-events</t>
+  </si>
+  <si>
+    <t>Mono</t>
+  </si>
+  <si>
+    <t>https://www.monterey.courts.ca.gov/news</t>
+  </si>
+  <si>
+    <t>Pop Format New 2</t>
+  </si>
+  <si>
+    <t>https://www.monterey.courts.ca.gov/</t>
+  </si>
+  <si>
+    <t>Monterey 1</t>
+  </si>
+  <si>
+    <t>Monterey 2</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>Homepage</t>
+  </si>
+  <si>
+    <t>https://www.napa.courts.ca.gov/general-information/news-events</t>
+  </si>
+  <si>
+    <t>Napa</t>
+  </si>
+  <si>
+    <t>http://nccourt.net/index.shtml</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>Pop Format Old 3</t>
   </si>
 </sst>
 </file>
@@ -454,18 +616,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC95DDDD-994C-244A-9068-26DE89EE0BFE}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="124.83203125" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -476,79 +639,395 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +1036,14 @@
     <hyperlink ref="A3" r:id="rId2" xr:uid="{BB0AA811-A5CB-D542-980D-884DE4738EA0}"/>
     <hyperlink ref="A2" r:id="rId3" xr:uid="{D6AAA6A8-1794-AA40-A242-45B9E2C93C90}"/>
     <hyperlink ref="A4" r:id="rId4" xr:uid="{F9B75749-1875-284C-A75B-8B4E79D95DF8}"/>
+    <hyperlink ref="A9" r:id="rId5" xr:uid="{3E186BA0-D2AF-1344-AF80-F61CA099F7DC}"/>
+    <hyperlink ref="A11" r:id="rId6" xr:uid="{49828ADC-A12A-174C-AA61-8F1C97CF5F79}"/>
+    <hyperlink ref="A14" r:id="rId7" xr:uid="{E70D67B6-89B5-9E46-9ED4-BD3E176610FC}"/>
+    <hyperlink ref="A22" r:id="rId8" xr:uid="{91D9F9A5-664B-8F47-A98A-40DA8C27DD4A}"/>
+    <hyperlink ref="A15" r:id="rId9" xr:uid="{30100368-02FF-BB4E-8DB1-72A49994D424}"/>
+    <hyperlink ref="A16" r:id="rId10" xr:uid="{64D6FB6E-9C4F-8C4F-BEA5-982C45E0BF2F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Automated_Court_Notice_Checker/county_list.xlsx
+++ b/Automated_Court_Notice_Checker/county_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelbenliyan/Documents/Coding/Personal/court_notification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE10A88D-500B-AC4F-B846-8526CF182637}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EA81FA-C3F0-FE43-A9F6-004757A680E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="6180" windowWidth="28040" windowHeight="17440" xr2:uid="{FDB128E7-B94B-194E-B626-D6532E028DD4}"/>
+    <workbookView xWindow="30280" yWindow="700" windowWidth="24180" windowHeight="23080" xr2:uid="{FDB128E7-B94B-194E-B626-D6532E028DD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="128">
   <si>
     <t>http://www.alameda.courts.ca.gov/Default.aspx</t>
   </si>
@@ -253,6 +253,162 @@
   </si>
   <si>
     <t>Pop Format Old 3</t>
+  </si>
+  <si>
+    <t>https://riverside.courts.ca.gov/PublicNotices/COVID-19-Court-Operations.php</t>
+  </si>
+  <si>
+    <t>Riverside 2</t>
+  </si>
+  <si>
+    <t>Covid</t>
+  </si>
+  <si>
+    <t>https://riverside.courts.ca.gov/GeneralInfo/MediaInfo/notices.php</t>
+  </si>
+  <si>
+    <t>Riverside 1</t>
+  </si>
+  <si>
+    <t>https://www.saccourt.ca.gov/general/news-releases.aspx</t>
+  </si>
+  <si>
+    <t>Sacramento</t>
+  </si>
+  <si>
+    <t>01.01.22</t>
+  </si>
+  <si>
+    <t>https://www.sanbenito.courts.ca.gov/general-information/news-events</t>
+  </si>
+  <si>
+    <t>San Benito</t>
+  </si>
+  <si>
+    <t>https://www.sb-court.org/news-notice</t>
+  </si>
+  <si>
+    <t>San Bernardino</t>
+  </si>
+  <si>
+    <t>Jan 01, 2022</t>
+  </si>
+  <si>
+    <t>https://www.sdcourt.ca.gov/news-release</t>
+  </si>
+  <si>
+    <t>San Diego</t>
+  </si>
+  <si>
+    <t>https://www.slo.courts.ca.gov/general-information/news-events</t>
+  </si>
+  <si>
+    <t>San Luis Obispo</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>https://www.sbcourts.org/</t>
+  </si>
+  <si>
+    <t>Santa Barbara</t>
+  </si>
+  <si>
+    <t>Pop Format Old 4</t>
+  </si>
+  <si>
+    <t>https://www.scscourt.org/general_info/news_media/tempnews.shtml</t>
+  </si>
+  <si>
+    <t>Santa Clara 2</t>
+  </si>
+  <si>
+    <t>Santa Clara 1</t>
+  </si>
+  <si>
+    <t>https://www.scscourt.org/general_info/news_media/policy_publicntc_news.shtml</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temp </t>
+  </si>
+  <si>
+    <t>https://www.santacruz.courts.ca.gov/general-information/news-and-events</t>
+  </si>
+  <si>
+    <t>Santa Cruz</t>
+  </si>
+  <si>
+    <t>Shasta</t>
+  </si>
+  <si>
+    <t>SSL: CERTIFICATE_VERIFY_FAILED</t>
+  </si>
+  <si>
+    <t>https://www.sierra.courts.ca.gov/general-information/news-and-events</t>
+  </si>
+  <si>
+    <t>Sierra</t>
+  </si>
+  <si>
+    <t>https://www.siskiyou.courts.ca.gov/general-information/news-and-events</t>
+  </si>
+  <si>
+    <t>Siskiyou</t>
+  </si>
+  <si>
+    <t>https://solano.courts.ca.gov/administration/press-releases-public-notices/</t>
+  </si>
+  <si>
+    <t>Solano</t>
+  </si>
+  <si>
+    <t>Sonoma</t>
+  </si>
+  <si>
+    <t>https://www.stanct.org/</t>
+  </si>
+  <si>
+    <t>Stanislaus</t>
+  </si>
+  <si>
+    <t>https://www.sutter.courts.ca.gov/general-information/news-and-events</t>
+  </si>
+  <si>
+    <t>Sutter</t>
+  </si>
+  <si>
+    <t>https://www.tehama.courts.ca.gov/general-information/news-and-events</t>
+  </si>
+  <si>
+    <t>Tehama</t>
+  </si>
+  <si>
+    <t>https://www.tulare.courts.ca.gov/general-information/news</t>
+  </si>
+  <si>
+    <t>Tulare</t>
+  </si>
+  <si>
+    <t>http://www.ventura.courts.ca.gov/public-notice.html</t>
+  </si>
+  <si>
+    <t>Ventura</t>
+  </si>
+  <si>
+    <t>https://www.yolo.courts.ca.gov/general-information/local-rules-news-notices-orders-and-policies</t>
+  </si>
+  <si>
+    <t>Yolo</t>
+  </si>
+  <si>
+    <t>https://www.yuba.courts.ca.gov/general-information/news-and-events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuba </t>
   </si>
 </sst>
 </file>
@@ -616,16 +772,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC95DDDD-994C-244A-9068-26DE89EE0BFE}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="124.83203125" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="83.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.1640625" bestFit="1" customWidth="1"/>
@@ -1028,6 +1184,306 @@
       </c>
       <c r="D30" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>120</v>
+      </c>
+      <c r="B51" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
